--- a/AutoOrg/Data/Welcome Survey!.xlsx
+++ b/AutoOrg/Data/Welcome Survey!.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen - Work\Documents\Revature\Fun Projects\Selenium\AutoOrg\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAD1C75-0619-4FE4-ACD8-63B580C40CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18B478C-26DA-4283-8331-BF6B03DE5DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7995" yWindow="2340" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="6135" windowWidth="33360" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -66,261 +66,246 @@
     <t>anonymous</t>
   </si>
   <si>
-    <t>xs.aviles@gmail.com</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Sanchez-Aviles</t>
-  </si>
-  <si>
-    <t>thatsnegative</t>
-  </si>
-  <si>
-    <t>kristopherwasserman6@msn.com</t>
-  </si>
-  <si>
-    <t>Kristopher</t>
-  </si>
-  <si>
-    <t>Wasserman</t>
-  </si>
-  <si>
-    <t>kwasserman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">springsairairlines.com
+    <t>k4tiek3nt1981@gmail.com</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>k4tiek3nt</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>mahatheymark@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Mahathey</t>
+  </si>
+  <si>
+    <t>markpm2239</t>
+  </si>
+  <si>
+    <t>I do have my own website its funny I never use it and I have made YouTube videos based on canvas animations most of them.</t>
+  </si>
+  <si>
+    <t>mkabba51@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mahamadou</t>
+  </si>
+  <si>
+    <t>Kabba</t>
+  </si>
+  <si>
+    <t>moekabba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only know little about JavaScript
 </t>
   </si>
   <si>
-    <t>bshively76@gmail.com</t>
-  </si>
-  <si>
-    <t>Brandon</t>
-  </si>
-  <si>
-    <t>Shively</t>
-  </si>
-  <si>
-    <t>bshively2</t>
-  </si>
-  <si>
-    <t>Jasmine</t>
-  </si>
-  <si>
-    <t>nicolasaug.colorado@gmail.com</t>
-  </si>
-  <si>
-    <t>Nicolas</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>ncolorado10</t>
-  </si>
-  <si>
-    <t>jonathonrenaud1988@gmail.com</t>
-  </si>
-  <si>
-    <t>Jonathon</t>
-  </si>
-  <si>
-    <t>Renaud</t>
-  </si>
-  <si>
-    <t>Roomsiejones</t>
-  </si>
-  <si>
-    <t>starfox1999@gmail.com</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>Chan</t>
-  </si>
-  <si>
-    <t>naruto7878</t>
-  </si>
-  <si>
-    <t>the1980mutant@yahoo.com</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Hinson</t>
-  </si>
-  <si>
-    <t>OctoberSith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last semester in class we built a Visual Studio Application for Inventory with C# and .Net, although the class was for SQL. I have a little bit of experience by doing this. I have taken classes with Python and Java. </t>
-  </si>
-  <si>
-    <t>bdawkins2@elon.edu</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>Dawkins</t>
-  </si>
-  <si>
-    <t>Bdawkins00</t>
-  </si>
-  <si>
-    <t>andydemarks@andydemarks.com</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>DeMarco</t>
-  </si>
-  <si>
-    <t>andydemarks</t>
-  </si>
-  <si>
-    <t>Made a simple static website in html css and javascript: url andydemarks.com</t>
-  </si>
-  <si>
-    <t>robertosandoval07@gmail.com</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>Sandoval</t>
-  </si>
-  <si>
-    <t>sandovro</t>
-  </si>
-  <si>
-    <t>I have some experience with C++ but I have never used C#.</t>
-  </si>
-  <si>
-    <t>Vothanhdat278@gmail.com</t>
-  </si>
-  <si>
-    <t>Dat</t>
-  </si>
-  <si>
-    <t>Vo</t>
-  </si>
-  <si>
-    <t>Hy0tic</t>
-  </si>
-  <si>
-    <t>kirosa1994@gmail.com</t>
-  </si>
-  <si>
-    <t>Tuan Anh</t>
-  </si>
-  <si>
-    <t>Nguyen</t>
-  </si>
-  <si>
-    <t>kirasn</t>
-  </si>
-  <si>
-    <t>hyunsoo.jeon@revature.net</t>
-  </si>
-  <si>
-    <t>Hyunsoo</t>
-  </si>
-  <si>
-    <t>Jeon</t>
-  </si>
-  <si>
-    <t>hsprime85</t>
-  </si>
-  <si>
-    <t>I have a e-commerce project with React frontend and mongoDB backend.</t>
-  </si>
-  <si>
-    <t>chadcsoloman@gmail.com</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Solomon</t>
-  </si>
-  <si>
-    <t>chadcsolo1</t>
-  </si>
-  <si>
-    <t>I would one day like to use my programming knowledge to build biological simulations for research.</t>
-  </si>
-  <si>
-    <t>terrancedusher@gmail.com</t>
-  </si>
-  <si>
-    <t>Terrance</t>
-  </si>
-  <si>
-    <t>Usher</t>
-  </si>
-  <si>
-    <t>TerranceUsher</t>
-  </si>
-  <si>
-    <t>I've used C# for the unity game engine before. It has been quite a while so I definitely need a refresher.
-Object Oriented Programming and C# I'm both pretty familiar with just haven't touched them in a long time. I just need a quick refresher.</t>
-  </si>
-  <si>
-    <t>abdulkerim55m@gmail.com</t>
-  </si>
-  <si>
-    <t>Abdulkerim</t>
-  </si>
-  <si>
-    <t>Metenea</t>
-  </si>
-  <si>
-    <t>Abdulkerim55</t>
-  </si>
-  <si>
-    <t>J-tseng@hotmail.com</t>
-  </si>
-  <si>
-    <t>Tseng</t>
-  </si>
-  <si>
-    <t>Jasminetseng7</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>brenes.daniel@yahoo.com</t>
+    <t>Stevengray2311@gmail.com</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>Sgray23</t>
+  </si>
+  <si>
+    <t>Charleneicrespo@icloud.com</t>
+  </si>
+  <si>
+    <t>Charlene</t>
+  </si>
+  <si>
+    <t>Crespo</t>
+  </si>
+  <si>
+    <t>Ccrespo03</t>
+  </si>
+  <si>
+    <t>mudyaisrael@gmail.com</t>
+  </si>
+  <si>
+    <t>israel</t>
+  </si>
+  <si>
+    <t>Ngandu</t>
+  </si>
+  <si>
+    <t>psycheisrael</t>
+  </si>
+  <si>
+    <t>All the projects I've attempted and worked on are available on my GitHub (https://github.com/psycheisrael)</t>
+  </si>
+  <si>
+    <t>chadeldowridge@gmail.com</t>
+  </si>
+  <si>
+    <t>Chadel</t>
+  </si>
+  <si>
+    <t>Dowridge</t>
+  </si>
+  <si>
+    <t>ChadelD</t>
+  </si>
+  <si>
+    <t>I have a couple of projects i have worked on in school so im familiar with a couple of languages.</t>
+  </si>
+  <si>
+    <t>jpulido916@yahoo.com</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Pulido</t>
+  </si>
+  <si>
+    <t>Phreshh</t>
+  </si>
+  <si>
+    <t>I have a couple simple programs and layouts on my Code pen account. Note that Code pen  doesn't let me import images so some of the layouts are pretty botched. Other than that I have some simple crypto dapps/ smart contracts as well but that's more of a thing that a lot of people aren't really interested in. 
+CodePen - https://codepen.io/Phreshh</t>
+  </si>
+  <si>
+    <t>aliumer211@gmail.com</t>
+  </si>
+  <si>
+    <t>Maaz</t>
+  </si>
+  <si>
+    <t>Umer</t>
+  </si>
+  <si>
+    <t>alium</t>
+  </si>
+  <si>
+    <t>coldstar.band@gmail.</t>
+  </si>
+  <si>
+    <t>Joshu</t>
+  </si>
+  <si>
+    <t>Ballaeas</t>
+  </si>
+  <si>
+    <t>Josh91023</t>
+  </si>
+  <si>
+    <t>Jlopezvilla87@gmail.com</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Lopez Villa</t>
+  </si>
+  <si>
+    <t>JLV87</t>
+  </si>
+  <si>
+    <t>Ran a ínter changeable color Spiral using python code</t>
+  </si>
+  <si>
+    <t>claritzamunoz1991@gmail.com</t>
+  </si>
+  <si>
+    <t>Claritza</t>
+  </si>
+  <si>
+    <t>Munoz</t>
+  </si>
+  <si>
+    <t>cmunoz11</t>
+  </si>
+  <si>
+    <t>stevennevarez2010@hotmail.com</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Nevarez</t>
+  </si>
+  <si>
+    <t>RobertNevarez</t>
+  </si>
+  <si>
+    <t>gracekim2277@yahoo.com</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>gracekim07</t>
+  </si>
+  <si>
+    <t>xmartin3@gmail.com</t>
+  </si>
+  <si>
+    <t>Xia</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>https://github.com/MissXiaMartin</t>
+  </si>
+  <si>
+    <t>iuriirozhko@gmail.com</t>
+  </si>
+  <si>
+    <t>iurii</t>
+  </si>
+  <si>
+    <t>rozhko</t>
+  </si>
+  <si>
+    <t>yurirozhko</t>
+  </si>
+  <si>
+    <t>dpagan7@gmail.com</t>
   </si>
   <si>
     <t>Daniel</t>
   </si>
   <si>
-    <t>Brenes</t>
-  </si>
-  <si>
-    <t>dbrenes90</t>
-  </si>
-  <si>
-    <t>vijhan.woodley@gmail.com</t>
-  </si>
-  <si>
-    <t>Vijhan</t>
-  </si>
-  <si>
-    <t>Woodley</t>
-  </si>
-  <si>
-    <t>vijhan</t>
-  </si>
-  <si>
-    <t>iuhafiuwe1i28324y</t>
+    <t>Pagan</t>
+  </si>
+  <si>
+    <t>Vyzoroy</t>
+  </si>
+  <si>
+    <t>not at this time</t>
+  </si>
+  <si>
+    <t>austinjroberts17@gmail.com</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>austinjroberts17</t>
   </si>
 </sst>
 </file>
@@ -330,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,13 +323,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -356,15 +361,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -418,8 +429,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L21" totalsRowShown="0">
-  <autoFilter ref="A1:L21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L19" totalsRowShown="0">
+  <autoFilter ref="A1:L19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="10"/>
@@ -735,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44579.394409722197</v>
+        <v>44673.748356481497</v>
       </c>
       <c r="C2" s="1">
-        <v>44579.394710648099</v>
+        <v>44673.753854166702</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -811,38 +822,40 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44579.415497685201</v>
+        <v>44673.768460648098</v>
       </c>
       <c r="C3" s="1">
-        <v>44579.416469907403</v>
+        <v>44673.7718634259</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -851,68 +864,70 @@
         <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44579.411030092597</v>
+        <v>44673.814548611103</v>
       </c>
       <c r="C4" s="1">
-        <v>44579.417175925897</v>
+        <v>44673.815995370402</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>44579.4139236111</v>
+        <v>44673.840335648099</v>
       </c>
       <c r="C5" s="1">
-        <v>44579.4440972222</v>
+        <v>44673.841446759303</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -924,363 +939,361 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>44579.456331018497</v>
+        <v>44674.496631944399</v>
       </c>
       <c r="C6" s="1">
-        <v>44579.456782407397</v>
+        <v>44674.500115740702</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44579.456215277802</v>
+        <v>44674.588599536997</v>
       </c>
       <c r="C7" s="1">
-        <v>44579.457303240699</v>
+        <v>44674.591736111099</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44579.456412036998</v>
+        <v>44675.574814814798</v>
       </c>
       <c r="C8" s="1">
-        <v>44579.457916666703</v>
+        <v>44675.578553240703</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44579.4561805556</v>
+        <v>44675.658888888902</v>
       </c>
       <c r="C9" s="1">
-        <v>44579.4581481481</v>
+        <v>44675.672303240703</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44579.457013888903</v>
+        <v>44675.847245370402</v>
       </c>
       <c r="C10" s="1">
-        <v>44579.459131944401</v>
+        <v>44675.847789351901</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>44579.456574074102</v>
+        <v>44676.2117476852</v>
       </c>
       <c r="C11" s="1">
-        <v>44579.459571759297</v>
+        <v>44676.212974536997</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44579.457986111098</v>
+        <v>44676.226342592599</v>
       </c>
       <c r="C12" s="1">
-        <v>44579.4604861111</v>
+        <v>44676.231481481504</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>44579.456273148098</v>
+        <v>44676.3834837963</v>
       </c>
       <c r="C13" s="1">
-        <v>44579.462303240703</v>
+        <v>44676.385590277801</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="J13">
         <v>3</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>44579.456215277802</v>
+        <v>44676.415613425903</v>
       </c>
       <c r="C14" s="1">
-        <v>44579.5608333333</v>
+        <v>44676.444155092599</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>44579.616307870398</v>
+        <v>44676.458576388897</v>
       </c>
       <c r="C15" s="1">
-        <v>44579.618298611102</v>
+        <v>44676.459548611099</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>44579.616273148102</v>
+        <v>44676.458611111098</v>
       </c>
       <c r="C16" s="1">
-        <v>44579.620601851901</v>
+        <v>44676.4608449074</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -1295,47 +1308,45 @@
       <c r="H16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="4" t="s">
         <v>79</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K16">
-        <v>4</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>44579.670358796298</v>
+        <v>44676.4586458333</v>
       </c>
       <c r="C17" s="1">
-        <v>44579.672627314802</v>
+        <v>44676.461516203701</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="J17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1344,23 +1355,23 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>44579.697361111103</v>
+        <v>44676.458599537</v>
       </c>
       <c r="C18" s="1">
-        <v>44579.698414351798</v>
+        <v>44676.466909722199</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>86</v>
@@ -1380,13 +1391,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>44579.701249999998</v>
+        <v>44676.458703703698</v>
       </c>
       <c r="C19" s="1">
-        <v>44579.701990740701</v>
+        <v>44676.469432870399</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>12</v>
@@ -1405,68 +1416,21 @@
         <v>92</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>25</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44579.698159722197</v>
-      </c>
-      <c r="C20" s="1">
-        <v>44579.705613425896</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I16" r:id="rId1" xr:uid="{B3E91EC9-220E-4906-AFD5-5838A7AA17BC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>